--- a/Multiknapsack/results/fixed_recourse/singlecut/M20_N100_T0_a50_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M20_N100_T0_a50_ccg.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>instance</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>num cuts</t>
   </si>
   <si>
     <t>num variables</t>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>MP gap</t>
+  </si>
+  <si>
+    <t>MP solve time</t>
   </si>
   <si>
     <t>Worst violation</t>
@@ -425,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,265 +462,298 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-427.8855970728988</v>
+        <v>-137.11378152439335</v>
       </c>
       <c r="C2">
-        <v>10.03771623</v>
+        <v>10.287155099</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>322</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>245</v>
+        <v>766</v>
       </c>
       <c r="H2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>735</v>
+      </c>
+      <c r="I2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-434.5319297237428</v>
+        <v>-135.31516025620243</v>
       </c>
       <c r="C3">
-        <v>0.080366977</v>
+        <v>5.472691341</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>322</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>245</v>
+        <v>1654</v>
       </c>
       <c r="H3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>1715</v>
+      </c>
+      <c r="I3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-443.3980582963035</v>
+        <v>-135.9563786652169</v>
       </c>
       <c r="C4">
-        <v>0.108108516</v>
+        <v>5.487941758</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>322</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>245</v>
+        <v>1432</v>
       </c>
       <c r="H4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>1470</v>
+      </c>
+      <c r="I4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-442.32635163818287</v>
+        <v>-135.58505378602013</v>
       </c>
       <c r="C5">
-        <v>0.081607593</v>
+        <v>2.447590998</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>322</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>245</v>
+        <v>988</v>
       </c>
       <c r="H5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>980</v>
+      </c>
+      <c r="I5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-427.42177211849423</v>
+        <v>-135.09243893581322</v>
       </c>
       <c r="C6">
-        <v>0.089391476</v>
+        <v>2.038020656</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>322</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>245</v>
+        <v>988</v>
       </c>
       <c r="H6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>980</v>
+      </c>
+      <c r="I6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-428.64652898559837</v>
+        <v>-134.73112232118152</v>
       </c>
       <c r="C7">
-        <v>0.118444863</v>
+        <v>3.37860456</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>322</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>245</v>
+        <v>766</v>
       </c>
       <c r="H7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>735</v>
+      </c>
+      <c r="I7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-422.09181730807757</v>
+        <v>-134.05690434902306</v>
       </c>
       <c r="C8">
-        <v>0.08651894</v>
+        <v>1.839873359</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>322</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>245</v>
+        <v>988</v>
       </c>
       <c r="H8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>980</v>
+      </c>
+      <c r="I8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-429.9772620922706</v>
+        <v>-135.76971071430296</v>
       </c>
       <c r="C9">
-        <v>0.100821915</v>
+        <v>2.984893823</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>322</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>245</v>
+        <v>988</v>
       </c>
       <c r="H9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>980</v>
+      </c>
+      <c r="I9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-435.3518524766065</v>
+        <v>-136.41153720782387</v>
       </c>
       <c r="C10">
-        <v>0.08904179</v>
+        <v>2.372520252</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>322</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>245</v>
+        <v>1210</v>
       </c>
       <c r="H10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>1225</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-419.16895606123836</v>
+        <v>-132.46179094034034</v>
       </c>
       <c r="C11">
-        <v>0.113401358</v>
+        <v>1.379697627</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>322</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>245</v>
+        <v>766</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>735</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -724,27 +763,30 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -755,20 +797,94 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>28.5433</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.023858903751708984</v>
+      </c>
+      <c r="E2">
+        <v>171.2598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-435.3518524766065</v>
+        <v>-139.93782282450425</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.08946517955473363</v>
       </c>
       <c r="D3">
+        <v>0.21311670439355468</v>
+      </c>
+      <c r="E3">
+        <v>2.93069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-137.59053706773062</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.24720227911743164</v>
+      </c>
+      <c r="E4">
+        <v>1.58741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-137.09966449698007</v>
+      </c>
+      <c r="C5">
+        <v>0.0724704855763129</v>
+      </c>
+      <c r="D5">
+        <v>0.4179721876147461</v>
+      </c>
+      <c r="E5">
+        <v>0.85066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-136.65914618084938</v>
+      </c>
+      <c r="C6">
+        <v>0.04323102168691421</v>
+      </c>
+      <c r="D6">
+        <v>0.6335062549316406</v>
+      </c>
+      <c r="E6">
+        <v>0.49941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-136.41153720782387</v>
+      </c>
+      <c r="C7">
+        <v>0.0016606491129266833</v>
+      </c>
+      <c r="D7">
+        <v>0.5632428352928467</v>
+      </c>
+      <c r="E7">
         <v>0.0</v>
       </c>
     </row>
@@ -779,27 +895,30 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -810,20 +929,60 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>27.31454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03553469746630859</v>
+      </c>
+      <c r="E2">
+        <v>163.88726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-419.16895606123836</v>
+        <v>-134.8838118310591</v>
       </c>
       <c r="C3">
-        <v>1.3007556535059771e-9</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.293237419336792</v>
+      </c>
+      <c r="E3">
+        <v>2.11505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-133.4324367179977</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.4216971714937744</v>
+      </c>
+      <c r="E4">
+        <v>1.16066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-132.46179094034034</v>
+      </c>
+      <c r="C5">
+        <v>0.002509945192715695</v>
+      </c>
+      <c r="D5">
+        <v>0.47591064460681154</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
@@ -834,27 +993,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -865,20 +1027,60 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>27.58808</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.9337472528621826</v>
+      </c>
+      <c r="E2">
+        <v>165.52848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-427.8855970728988</v>
+        <v>-139.66559024327776</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.10811289140002442</v>
+      </c>
+      <c r="E3">
+        <v>1.96679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-137.1254626602995</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.4132804239534912</v>
+      </c>
+      <c r="E4">
+        <v>0.14006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-137.11378152439335</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.7878413138675537</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
@@ -889,27 +1091,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -920,20 +1125,128 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>27.8354</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.011878441546264648</v>
+      </c>
+      <c r="E2">
+        <v>167.0124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-434.5319297237428</v>
+        <v>-141.07129982973146</v>
       </c>
       <c r="C3">
-        <v>2.6163057291064248e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.15282743936926269</v>
+      </c>
+      <c r="E3">
+        <v>2.93922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-139.28327608340248</v>
+      </c>
+      <c r="C4">
+        <v>0.0704167524386277</v>
+      </c>
+      <c r="D4">
+        <v>0.4786008662619629</v>
+      </c>
+      <c r="E4">
+        <v>2.58461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-138.16592413853846</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.4899113833151856</v>
+      </c>
+      <c r="E5">
+        <v>2.054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-137.20050703139415</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>0.48847423974060056</v>
+      </c>
+      <c r="E6">
+        <v>1.56438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-135.79726729611087</v>
+      </c>
+      <c r="C7">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>0.753098891293335</v>
+      </c>
+      <c r="E7">
+        <v>1.13521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-135.46026517258096</v>
+      </c>
+      <c r="C8">
+        <v>1.6042282346434867e-5</v>
+      </c>
+      <c r="D8">
+        <v>1.5831633201743165</v>
+      </c>
+      <c r="E8">
+        <v>0.50594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-135.31516025620243</v>
+      </c>
+      <c r="C9">
+        <v>0.0</v>
+      </c>
+      <c r="D9">
+        <v>1.0935567947265625</v>
+      </c>
+      <c r="E9">
         <v>0.0</v>
       </c>
     </row>
@@ -944,27 +1257,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -975,20 +1291,111 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>27.75834</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.038531246130981446</v>
+      </c>
+      <c r="E2">
+        <v>166.55002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-443.3980582963035</v>
+        <v>-138.18648526107933</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.24786014060620118</v>
+      </c>
+      <c r="E3">
+        <v>1.8248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-137.51777283240853</v>
+      </c>
+      <c r="C4">
+        <v>0.09913443668665377</v>
+      </c>
+      <c r="D4">
+        <v>0.272417945715332</v>
+      </c>
+      <c r="E4">
+        <v>2.15625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-136.37996035479676</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.7349746367258301</v>
+      </c>
+      <c r="E5">
+        <v>1.63818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-136.00546191303437</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>1.9432559646895753</v>
+      </c>
+      <c r="E6">
+        <v>0.38647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-135.98841003123738</v>
+      </c>
+      <c r="C7">
+        <v>0.09544148041256484</v>
+      </c>
+      <c r="D7">
+        <v>1.23435758</v>
+      </c>
+      <c r="E7">
+        <v>0.31739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-135.9563786652169</v>
+      </c>
+      <c r="C8">
+        <v>0.0</v>
+      </c>
+      <c r="D8">
+        <v>0.6956248613591308</v>
+      </c>
+      <c r="E8">
         <v>0.0</v>
       </c>
     </row>
@@ -999,27 +1406,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1030,20 +1440,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>27.45487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03663255182165527</v>
+      </c>
+      <c r="E2">
+        <v>164.72922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-442.32635163818287</v>
+        <v>-139.9617415307455</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.05011014761587282</v>
       </c>
       <c r="D3">
+        <v>0.29488726954467775</v>
+      </c>
+      <c r="E3">
+        <v>3.53222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-136.94733274717487</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.3535184586373291</v>
+      </c>
+      <c r="E4">
+        <v>2.43089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-135.70079111418775</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.5834755325560302</v>
+      </c>
+      <c r="E5">
+        <v>0.95014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-135.58505378602013</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>1.0013326846934814</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -1054,27 +1521,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1085,20 +1555,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>28.25972</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.023733205862060548</v>
+      </c>
+      <c r="E2">
+        <v>169.55829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-427.42177211849423</v>
+        <v>-143.8785795848382</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.08015302875573731</v>
+      </c>
+      <c r="E3">
+        <v>3.41682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-136.62265292795746</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.3280209988968506</v>
+      </c>
+      <c r="E4">
+        <v>1.4287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-135.43038862974987</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.2516887887911377</v>
+      </c>
+      <c r="E5">
+        <v>1.00335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-135.09243893581322</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>1.1265412777963868</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -1109,27 +1636,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1140,20 +1670,60 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>29.5793</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0378660299342041</v>
+      </c>
+      <c r="E2">
+        <v>177.47579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-428.64652898559837</v>
+        <v>-136.71950176232576</v>
       </c>
       <c r="C3">
-        <v>3.978342178249943e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.39059790661743166</v>
+      </c>
+      <c r="E3">
+        <v>1.44861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-135.77282837428896</v>
+      </c>
+      <c r="C4">
+        <v>0.09973148498124886</v>
+      </c>
+      <c r="D4">
+        <v>0.5737998355811768</v>
+      </c>
+      <c r="E4">
+        <v>1.18996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-134.73112232118152</v>
+      </c>
+      <c r="C5">
+        <v>0.08824216088329265</v>
+      </c>
+      <c r="D5">
+        <v>2.210401959039551</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
@@ -1164,27 +1734,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1195,20 +1768,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>27.17939</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.035650546746215823</v>
+      </c>
+      <c r="E2">
+        <v>163.07636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-422.09181730807757</v>
+        <v>-136.02497764523366</v>
       </c>
       <c r="C3">
-        <v>1.3467074349680063e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.36687075799499513</v>
+      </c>
+      <c r="E3">
+        <v>2.19878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-134.06020504746147</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.35492904597290037</v>
+      </c>
+      <c r="E4">
+        <v>0.05446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-134.0585784955312</v>
+      </c>
+      <c r="C5">
+        <v>0.005173578098410792</v>
+      </c>
+      <c r="D5">
+        <v>0.348941188553833</v>
+      </c>
+      <c r="E5">
+        <v>0.02782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-134.05690434902306</v>
+      </c>
+      <c r="C6">
+        <v>0.03958692708878029</v>
+      </c>
+      <c r="D6">
+        <v>0.5005677991538086</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -1219,27 +1849,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1250,20 +1883,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>26.71368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.036144671563720705</v>
+      </c>
+      <c r="E2">
+        <v>160.28209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-429.9772620922706</v>
+        <v>-138.21671788427443</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.24796916285461426</v>
+      </c>
+      <c r="E3">
+        <v>2.25969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-136.93525778843104</v>
+      </c>
+      <c r="C4">
+        <v>0.06403404116594276</v>
+      </c>
+      <c r="D4">
+        <v>0.8943871653197022</v>
+      </c>
+      <c r="E4">
+        <v>1.85059</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-135.83425703211748</v>
+      </c>
+      <c r="C5">
+        <v>0.0036656531630343803</v>
+      </c>
+      <c r="D5">
+        <v>0.7107614675988769</v>
+      </c>
+      <c r="E5">
+        <v>0.38332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-135.76971071430296</v>
+      </c>
+      <c r="C6">
+        <v>0.09951605213662487</v>
+      </c>
+      <c r="D6">
+        <v>0.9064664358426514</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
